--- a/data/numbers.xlsx
+++ b/data/numbers.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
   <si>
     <t>number</t>
   </si>
@@ -35,46 +35,16 @@
     <t>hi, how are you</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>whats up</t>
-  </si>
-  <si>
-    <t>jai Hind</t>
-  </si>
-  <si>
     <t>documents</t>
   </si>
   <si>
-    <t>E:\Development\Jain Software\WhatsApp Automation\Media\1.jpg</t>
-  </si>
-  <si>
-    <t>E:\Development\Jain Software\WhatsApp Automation\Media\2.mp4</t>
-  </si>
-  <si>
-    <t>E:\Development\Jain Software\WhatsApp Automation\Media\3.jpg</t>
-  </si>
-  <si>
-    <t>E:\Development\Jain Software\WhatsApp Automation\Media\4.jpg</t>
-  </si>
-  <si>
-    <t>E:\Development\Jain Software\WhatsApp Automation\Media\5.mp4</t>
-  </si>
-  <si>
-    <t>E:\Development\Jain Software\WhatsApp Automation\Media\6.mp4</t>
-  </si>
-  <si>
-    <t>E:\Development\Jain Software\WhatsApp Automation\Media\7.jpg</t>
-  </si>
-  <si>
-    <t>E:\Development\Jain Software\WhatsApp Automation\Media\8.jpg</t>
-  </si>
-  <si>
-    <t>E:\Development\Jain Software\WhatsApp Automation\Media\Natours.docx</t>
-  </si>
-  <si>
-    <t>E:\Development\Jain Software\WhatsApp Automation\Media\Natours.pptx</t>
+    <t>kaise ho bhai</t>
+  </si>
+  <si>
+    <t>majja ma!!</t>
+  </si>
+  <si>
+    <t>C:\Users\deves\OneDrive\Desktop/1.png</t>
   </si>
 </sst>
 </file>
@@ -392,16 +362,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
     <col min="3" max="3" width="75" customWidth="1"/>
     <col min="4" max="4" width="71.42578125" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" customWidth="1"/>
@@ -416,150 +386,131 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>7804846700</v>
+        <v>7828816221</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>7804846700</v>
+        <v>8109788295</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>7804846700</v>
+        <v>7828816221</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>7804846700</v>
+        <v>8109788295</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>7804846700</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
+        <v>7828816221</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7804846700</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
+        <v>8109788295</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7804846700</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
+        <v>7828816221</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7804846700</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
+        <v>8109788295</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>7804846700</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
+        <v>7828816221</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>7804846700</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
+        <v>8109788295</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>7804846700</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
+        <v>7828816221</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>7804846700</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
+        <v>8109788295</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>7804846700</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
+        <v>7828816221</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>8109788295</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
